--- a/data/EV-Calculation.xlsx
+++ b/data/EV-Calculation.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27630"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1947" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCECD7D9-6E77-40DE-B4E2-CEBD8664E8B9}"/>
+  <xr:revisionPtr revIDLastSave="1981" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D76D30A6-5B22-4E16-B25F-B0CB10E88039}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="No smart charging" sheetId="3" r:id="rId2"/>
     <sheet name="Smart charging" sheetId="2" r:id="rId3"/>
     <sheet name="B2G calculations" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="64">
   <si>
     <t>Datetime</t>
   </si>
@@ -196,6 +197,42 @@
   <si>
     <t>1.9</t>
   </si>
+  <si>
+    <t>Dynamic tariff</t>
+  </si>
+  <si>
+    <t>Dual tariff</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Dumb</t>
+  </si>
+  <si>
+    <t>no EV</t>
+  </si>
+  <si>
+    <t>Power generation</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>offpeak</t>
+  </si>
+  <si>
+    <t>EV load</t>
+  </si>
+  <si>
+    <t>Grid consumption</t>
+  </si>
+  <si>
+    <t>Grid injection</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -274,6 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,6 +346,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EV load with smart charging</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4720,6 +4785,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6408,8 +6528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03086007-FF13-4F03-A8AB-B476DD27065A}">
   <dimension ref="A1:G905"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -24199,7 +24319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C41F1D-362D-9D40-9C19-D9939CCD42B4}">
   <dimension ref="D7:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -24307,4 +24427,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ACFFD6-609E-4562-86CC-AEC71D5E9BF4}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/EV-Calculation.xlsx
+++ b/data/EV-Calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1981" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D76D30A6-5B22-4E16-B25F-B0CB10E88039}"/>
+  <xr:revisionPtr revIDLastSave="2028" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9006C50-7D6F-479D-9980-B4784A944572}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Smart charging" sheetId="2" r:id="rId3"/>
     <sheet name="B2G calculations" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="85">
   <si>
     <t>Datetime</t>
   </si>
@@ -233,6 +234,69 @@
   <si>
     <t>Cost</t>
   </si>
+  <si>
+    <t>Optimiser</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Typical values</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
+  </si>
+  <si>
+    <t>adjusts the learning rate for each parameter based on the average of recent gradients for that parameter</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>0.001-0.1</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>updates the model parameters in the direction opposite to the gradient of the loss function with respect to the parameters</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>0.9-0.99</t>
+  </si>
+  <si>
+    <t>nesterov</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>maintains adaptive learning rates for each parameter and keeps track of both first and second moments of the gradients</t>
+  </si>
+  <si>
+    <t>beta 1</t>
+  </si>
+  <si>
+    <t>0.9-0.999</t>
+  </si>
+  <si>
+    <t>beta 2</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +306,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +331,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Söhne"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,6 +384,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24433,8 +24508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ACFFD6-609E-4562-86CC-AEC71D5E9BF4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24794,4 +24869,153 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E496FE42-B901-450F-A184-77600CCF93F4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>